--- a/Content/BP/Inventory/Data/InventoryDataTable.xlsx
+++ b/Content/BP/Inventory/Data/InventoryDataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,62 @@
   </si>
   <si>
     <t>/Script/Engine.Texture2D'/Game/Assets/ResourcePack/Icons/UI_Icons/T_repair_icon.T_repair_icon'</t>
+  </si>
+  <si>
+    <t>Restore Health 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Mana 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Assets/UI/Pickups/T_Potion_Red.T_Potion_Red'</t>
+  </si>
+  <si>
+    <t>MP_Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Assets/UI/Pickups/T_Potion_Blue.T_Potion_Blue'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Assets/ResourcePack/Icons/Item_Icons/T_Icon_SM_Ruby.T_Icon_SM_Ruby'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Assets/ResourcePack/Icons/Item_Icons/T_Icon_SM_Sapphire.T_Icon_SM_Sapphire'</t>
+  </si>
+  <si>
+    <t>Restore Health 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Mana 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Blueprint'/Game/BP/Actor/Crystal/BP_CrystalPotion.BP_CrystalPotion'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Blueprint'/Game/BP/Actor/Crystal/BP_ManaCrystal.BP_ManaCrystal'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Blueprint'/Game/BP/Actor/Potion/BP_HealthPotion.BP_HealthPotion'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Blueprint'/Game/BP/Actor/Potion/BP_ManaPotion.BP_ManaPotion'</t>
+  </si>
+  <si>
+    <t>MP_Crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_Crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -281,14 +337,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -585,15 +641,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="107.92578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -803,6 +860,122 @@
       </c>
       <c r="I7" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -818,11 +991,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">

--- a/Content/BP/Inventory/Data/InventoryDataTable.xlsx
+++ b/Content/BP/Inventory/Data/InventoryDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="DT_ItemInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,14 +97,6 @@
     <t>/Script/Engine.Texture2D'/Game/Assets/ResourcePack/Icons/Item_Icons/T_Icon_SM_Meat_Steak_Raw.T_Icon_SM_Meat_Steak_Raw'</t>
   </si>
   <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banana Banana Banana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Food</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,17 +119,6 @@
     <t>/Script/Engine.Blueprint'/Game/BP/Actor/Item/BP_Banana.BP_Banana'</t>
   </si>
   <si>
-    <t>BlankBlankBlank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlankBlankBlankBlank</t>
-  </si>
-  <si>
-    <t>BlankBlankBlankBlank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +231,30 @@
   </si>
   <si>
     <t>HP_Crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used Long Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Store Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Mana 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Vigor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Intelligence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,23 +648,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="107.92578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="69.625" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="66.5" customWidth="1"/>
     <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -688,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -699,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -717,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -728,13 +733,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -746,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -757,13 +762,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -775,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -786,13 +791,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -804,24 +809,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -833,24 +838,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -862,24 +867,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -891,24 +896,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -920,24 +925,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -949,24 +954,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1029,66 +1034,66 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.35546875" customWidth="1"/>
-    <col min="3" max="3" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="89.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
